--- a/data/trans_dic/P44A$analisis-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 59,57</t>
+          <t>27,13; 56,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,5; 45,52</t>
+          <t>20,01; 45,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 15,89</t>
+          <t>6,2; 15,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,12; 42,04</t>
+          <t>18,15; 41,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,85; 53,87</t>
+          <t>26,81; 52,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 16,99</t>
+          <t>9,03; 16,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,66; 44,79</t>
+          <t>25,42; 45,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,9; 45,19</t>
+          <t>27,48; 45,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,7</t>
+          <t>9,22; 14,66</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,26; 50,42</t>
+          <t>20,05; 49,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 50,54</t>
+          <t>27,5; 49,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 85,29</t>
+          <t>14,68; 87,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 55,37</t>
+          <t>16,55; 55,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 44,89</t>
+          <t>14,23; 44,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,8</t>
+          <t>9,08; 15,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 46,5</t>
+          <t>24,77; 47,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 43,36</t>
+          <t>25,89; 44,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 75,5</t>
+          <t>13,19; 76,32</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 66,64</t>
+          <t>12,33; 67,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,87; 59,72</t>
+          <t>23,84; 62,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 16,95</t>
+          <t>6,78; 17,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 67,13</t>
+          <t>8,91; 67,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 62,82</t>
+          <t>7,53; 60,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,7</t>
+          <t>3,33; 11,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,11; 59,75</t>
+          <t>18,26; 56,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,85; 55,03</t>
+          <t>22,32; 53,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,8</t>
+          <t>5,75; 12,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,55; 47,92</t>
+          <t>27,99; 47,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 44,07</t>
+          <t>29,41; 44,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 75,78</t>
+          <t>12,65; 74,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,3; 40,68</t>
+          <t>23,17; 42,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,19; 44,26</t>
+          <t>25,97; 45,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,45</t>
+          <t>9,24; 13,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,39; 41,35</t>
+          <t>28,05; 41,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,2; 42,34</t>
+          <t>30,31; 42,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 60,76</t>
+          <t>11,83; 59,6</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18945</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16608</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14594</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18668</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24382</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21820</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37613</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40991</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36414</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12223; 25637</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10350; 23436</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8714; 21744</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11416; 26220</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16653; 32890</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15340; 28847</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27445; 48677</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31276; 51936</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28619; 45487</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16885</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29647</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>287159</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10521</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10122</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26700</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27406</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39769</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>313859</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9973; 24447</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21475; 38887</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>74940; 445512</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5038; 17000</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5186; 16344</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20239; 34678</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19865; 38067</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29645; 50748</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96733; 559915</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5240</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11984</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13514</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4984</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5403</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9823</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16968</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18917</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1796; 9866</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6901; 18092</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8388; 21284</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1112; 8471</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1215; 9707</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2833; 9835</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4939; 15260</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10065; 24097</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12003; 26903</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>41070</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>315266</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33772</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39488</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53924</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>97728</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>369190</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30607; 52072</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46678; 70850</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>97996; 580197</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24522; 45100</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29791; 51638</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44190; 64092</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>60376; 90172</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82881; 116076</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>148249; 746725</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$analisis-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
